--- a/signal_map/signalmap_safestrip_interfaces_v5.1.xlsx
+++ b/signal_map/signalmap_safestrip_interfaces_v5.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giammarco/GoogleDriveUNITN/PHDxxx/Projects/SAFESTRIP/MQTT_for_safestrip/signal_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B076F702-95AD-BD4E-8D0E-FE7F7935233F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA69DB2-AB7C-5245-9F6F-BDBA2350EE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{FBF927E7-8919-754A-9B9B-553D825B3903}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{FBF927E7-8919-754A-9B9B-553D825B3903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="606">
   <si>
     <t>SafeStrip</t>
   </si>
@@ -3074,11 +3074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EC5FC3-03DD-9345-8521-B8CE154A93B9}">
-  <dimension ref="A1:P262"/>
+  <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4700,12 +4700,8 @@
       <c r="H40" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="I40" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
       <c r="K40" s="21"/>
       <c r="L40" s="17" t="s">
         <v>72</v>
@@ -4744,12 +4740,8 @@
       <c r="H41" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="21"/>
       <c r="L41" s="17" t="s">
         <v>72</v>
@@ -4788,12 +4780,8 @@
       <c r="H42" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="21"/>
       <c r="L42" s="17" t="s">
         <v>72</v>
@@ -11483,28 +11471,26 @@
     </row>
     <row r="226" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="35" t="s">
-        <v>601</v>
+        <v>262</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>604</v>
+        <v>91</v>
       </c>
       <c r="D226" s="23">
         <v>1</v>
       </c>
       <c r="E226" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F226" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G226" s="36">
-        <v>10000000</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F226" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G226" s="23"/>
       <c r="H226" s="18" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I226" s="19" t="s">
         <v>28</v>
@@ -11512,12 +11498,12 @@
       <c r="J226" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K226" s="28"/>
+      <c r="K226" s="21"/>
       <c r="L226" s="17" t="s">
         <v>72</v>
       </c>
       <c r="M226" s="17" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="N226" s="17"/>
       <c r="O226" s="17"/>
@@ -11527,13 +11513,13 @@
     </row>
     <row r="227" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D227" s="23">
         <v>1</v>
@@ -11542,7 +11528,7 @@
         <v>65</v>
       </c>
       <c r="F227" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G227" s="36">
         <v>10000000</v>
@@ -11570,37 +11556,43 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="75" t="s">
-        <v>518</v>
-      </c>
-      <c r="B228" s="76" t="s">
-        <v>519</v>
-      </c>
-      <c r="C228" s="79" t="s">
-        <v>520</v>
-      </c>
-      <c r="D228" s="78">
-        <v>1</v>
-      </c>
-      <c r="E228" s="75" t="s">
+      <c r="A228" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="B228" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="D228" s="23">
+        <v>1</v>
+      </c>
+      <c r="E228" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F228" s="75"/>
-      <c r="G228" s="78">
-        <v>1</v>
-      </c>
-      <c r="H228" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="I228" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J228" s="73"/>
-      <c r="K228" s="74"/>
+      <c r="F228" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G228" s="36">
+        <v>10000000</v>
+      </c>
+      <c r="H228" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I228" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J228" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K228" s="28"/>
       <c r="L228" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="M228" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="M228" s="17" t="s">
+        <v>283</v>
+      </c>
       <c r="N228" s="17"/>
       <c r="O228" s="17"/>
       <c r="P228" s="17" t="s">
@@ -11609,23 +11601,27 @@
     </row>
     <row r="229" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="75" t="s">
-        <v>475</v>
-      </c>
-      <c r="B229" s="76"/>
-      <c r="C229" s="76" t="s">
-        <v>521</v>
+        <v>518</v>
+      </c>
+      <c r="B229" s="76" t="s">
+        <v>519</v>
+      </c>
+      <c r="C229" s="79" t="s">
+        <v>520</v>
       </c>
       <c r="D229" s="78">
         <v>1</v>
       </c>
-      <c r="E229" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="F229" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G229" s="78"/>
-      <c r="H229" s="75"/>
+      <c r="E229" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F229" s="75"/>
+      <c r="G229" s="78">
+        <v>1</v>
+      </c>
+      <c r="H229" s="75" t="s">
+        <v>69</v>
+      </c>
       <c r="I229" s="72" t="s">
         <v>28</v>
       </c>
@@ -11642,33 +11638,29 @@
       </c>
     </row>
     <row r="230" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="B230" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C230" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D230" s="23">
-        <v>1</v>
-      </c>
-      <c r="E230" s="18" t="s">
+      <c r="A230" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="B230" s="76"/>
+      <c r="C230" s="76" t="s">
+        <v>521</v>
+      </c>
+      <c r="D230" s="78">
+        <v>1</v>
+      </c>
+      <c r="E230" s="89" t="s">
         <v>78</v>
       </c>
       <c r="F230" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="G230" s="23"/>
-      <c r="H230" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I230" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J230" s="20"/>
-      <c r="K230" s="21"/>
+      <c r="G230" s="78"/>
+      <c r="H230" s="75"/>
+      <c r="I230" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J230" s="73"/>
+      <c r="K230" s="74"/>
       <c r="L230" s="17" t="s">
         <v>256</v>
       </c>
@@ -11680,33 +11672,33 @@
       </c>
     </row>
     <row r="231" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="B231" s="77" t="s">
-        <v>503</v>
-      </c>
-      <c r="C231" s="77" t="s">
-        <v>503</v>
-      </c>
-      <c r="D231" s="17">
+      <c r="A231" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="B231" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D231" s="23">
         <v>1</v>
       </c>
       <c r="E231" s="18" t="s">
         <v>78</v>
       </c>
       <c r="F231" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="G231" s="17"/>
-      <c r="H231" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="G231" s="23"/>
+      <c r="H231" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I231" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J231" s="73"/>
-      <c r="K231" s="74"/>
+      <c r="I231" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J231" s="20"/>
+      <c r="K231" s="21"/>
       <c r="L231" s="17" t="s">
         <v>256</v>
       </c>
@@ -11718,95 +11710,95 @@
       </c>
     </row>
     <row r="232" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="59" t="s">
-        <v>523</v>
-      </c>
-      <c r="B232" s="90" t="s">
-        <v>524</v>
-      </c>
-      <c r="C232" s="98"/>
-      <c r="D232" s="99"/>
-      <c r="E232" s="65"/>
-      <c r="F232" s="65"/>
-      <c r="G232" s="99"/>
-      <c r="H232" s="65"/>
-      <c r="I232" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J232" s="65"/>
-      <c r="K232" s="66"/>
-      <c r="L232" s="17"/>
+      <c r="A232" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="B232" s="77" t="s">
+        <v>503</v>
+      </c>
+      <c r="C232" s="77" t="s">
+        <v>503</v>
+      </c>
+      <c r="D232" s="17">
+        <v>1</v>
+      </c>
+      <c r="E232" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F232" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G232" s="17"/>
+      <c r="H232" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="I232" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J232" s="73"/>
+      <c r="K232" s="74"/>
+      <c r="L232" s="17" t="s">
+        <v>256</v>
+      </c>
       <c r="M232" s="17"/>
       <c r="N232" s="17"/>
       <c r="O232" s="17"/>
-      <c r="P232" s="17"/>
+      <c r="P232" s="17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="233" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B233" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C233" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D233" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E233" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F233" s="18"/>
-      <c r="G233" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H233" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I233" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J233" s="20"/>
-      <c r="K233" s="21"/>
+      <c r="A233" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="B233" s="90" t="s">
+        <v>524</v>
+      </c>
+      <c r="C233" s="98"/>
+      <c r="D233" s="99"/>
+      <c r="E233" s="65"/>
+      <c r="F233" s="65"/>
+      <c r="G233" s="99"/>
+      <c r="H233" s="65"/>
+      <c r="I233" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J233" s="65"/>
+      <c r="K233" s="66"/>
       <c r="L233" s="17"/>
       <c r="M233" s="17"/>
-      <c r="N233" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="N233" s="17"/>
       <c r="O233" s="17"/>
-      <c r="P233" s="17" t="s">
-        <v>256</v>
-      </c>
+      <c r="P233" s="17"/>
     </row>
     <row r="234" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="B234" s="77" t="s">
-        <v>503</v>
-      </c>
-      <c r="C234" s="77" t="s">
-        <v>503</v>
-      </c>
-      <c r="D234" s="17">
-        <v>1</v>
+      <c r="A234" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E234" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F234" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="G234" s="17"/>
-      <c r="H234" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="I234" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J234" s="73"/>
-      <c r="K234" s="74"/>
+        <v>26</v>
+      </c>
+      <c r="F234" s="18"/>
+      <c r="G234" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H234" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I234" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J234" s="20"/>
+      <c r="K234" s="21"/>
       <c r="L234" s="17"/>
       <c r="M234" s="17"/>
       <c r="N234" s="17" t="s">
@@ -11814,31 +11806,31 @@
       </c>
       <c r="O234" s="17"/>
       <c r="P234" s="17" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="75" t="s">
-        <v>518</v>
-      </c>
-      <c r="B235" s="76" t="s">
-        <v>519</v>
-      </c>
-      <c r="C235" s="79" t="s">
-        <v>520</v>
-      </c>
-      <c r="D235" s="78">
-        <v>1</v>
-      </c>
-      <c r="E235" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="F235" s="75"/>
-      <c r="G235" s="78">
-        <v>1</v>
-      </c>
-      <c r="H235" s="75" t="s">
-        <v>69</v>
+      <c r="A235" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="B235" s="77" t="s">
+        <v>503</v>
+      </c>
+      <c r="C235" s="77" t="s">
+        <v>503</v>
+      </c>
+      <c r="D235" s="17">
+        <v>1</v>
+      </c>
+      <c r="E235" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F235" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G235" s="17"/>
+      <c r="H235" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="I235" s="72" t="s">
         <v>28</v>
@@ -11852,31 +11844,31 @@
       </c>
       <c r="O235" s="17"/>
       <c r="P235" s="17" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="75" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B236" s="76" t="s">
-        <v>526</v>
-      </c>
-      <c r="C236" s="76" t="s">
-        <v>527</v>
+        <v>519</v>
+      </c>
+      <c r="C236" s="79" t="s">
+        <v>520</v>
       </c>
       <c r="D236" s="78">
         <v>1</v>
       </c>
-      <c r="E236" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="F236" s="37"/>
+      <c r="E236" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F236" s="75"/>
       <c r="G236" s="78">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H236" s="75" t="s">
-        <v>512</v>
+        <v>69</v>
       </c>
       <c r="I236" s="72" t="s">
         <v>28</v>
@@ -11895,21 +11887,27 @@
     </row>
     <row r="237" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="B237" s="76"/>
+        <v>525</v>
+      </c>
+      <c r="B237" s="76" t="s">
+        <v>526</v>
+      </c>
       <c r="C237" s="76" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D237" s="78">
         <v>1</v>
       </c>
       <c r="E237" s="89" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F237" s="37"/>
-      <c r="G237" s="78"/>
-      <c r="H237" s="75"/>
+      <c r="G237" s="78">
+        <v>100</v>
+      </c>
+      <c r="H237" s="75" t="s">
+        <v>512</v>
+      </c>
       <c r="I237" s="72" t="s">
         <v>28</v>
       </c>
@@ -11926,97 +11924,89 @@
       </c>
     </row>
     <row r="238" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="116" t="s">
+      <c r="A238" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="B238" s="76"/>
+      <c r="C238" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="D238" s="78">
+        <v>1</v>
+      </c>
+      <c r="E238" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F238" s="37"/>
+      <c r="G238" s="78"/>
+      <c r="H238" s="75"/>
+      <c r="I238" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J238" s="73"/>
+      <c r="K238" s="74"/>
+      <c r="L238" s="17"/>
+      <c r="M238" s="17"/>
+      <c r="N238" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O238" s="17"/>
+      <c r="P238" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="116" t="s">
         <v>530</v>
       </c>
-      <c r="B238" s="117" t="s">
+      <c r="B239" s="117" t="s">
         <v>531</v>
       </c>
-      <c r="C238" s="103"/>
-      <c r="D238" s="104"/>
-      <c r="E238" s="105"/>
-      <c r="F238" s="105"/>
-      <c r="G238" s="104"/>
-      <c r="H238" s="105"/>
-      <c r="I238" s="105" t="s">
+      <c r="C239" s="103"/>
+      <c r="D239" s="104"/>
+      <c r="E239" s="105"/>
+      <c r="F239" s="105"/>
+      <c r="G239" s="104"/>
+      <c r="H239" s="105"/>
+      <c r="I239" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="J238" s="105"/>
-      <c r="K238" s="106"/>
-      <c r="L238" s="107"/>
-      <c r="M238" s="102"/>
-      <c r="N238" s="102"/>
-      <c r="O238" s="102"/>
-      <c r="P238" s="102"/>
-    </row>
-    <row r="239" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="67" t="s">
+      <c r="J239" s="105"/>
+      <c r="K239" s="106"/>
+      <c r="L239" s="107"/>
+      <c r="M239" s="102"/>
+      <c r="N239" s="102"/>
+      <c r="O239" s="102"/>
+      <c r="P239" s="102"/>
+    </row>
+    <row r="240" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B239" s="67" t="s">
+      <c r="B240" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C239" s="67" t="s">
+      <c r="C240" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D239" s="67" t="s">
+      <c r="D240" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E239" s="67" t="s">
+      <c r="E240" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F239" s="67"/>
-      <c r="G239" s="67" t="s">
+      <c r="F240" s="67"/>
+      <c r="G240" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="H239" s="67" t="s">
+      <c r="H240" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="I239" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="J239" s="109"/>
-      <c r="K239" s="110"/>
-      <c r="L239" s="102" t="s">
-        <v>492</v>
-      </c>
-      <c r="M239" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="N239" s="102" t="s">
-        <v>532</v>
-      </c>
-      <c r="O239" s="102"/>
-      <c r="P239" s="102" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="B240" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="C240" s="70" t="s">
-        <v>347</v>
-      </c>
-      <c r="D240" s="71">
-        <v>1</v>
-      </c>
-      <c r="E240" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="F240" s="68"/>
-      <c r="G240" s="71"/>
-      <c r="H240" s="68"/>
-      <c r="I240" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="J240" s="113"/>
-      <c r="K240" s="114" t="s">
-        <v>28</v>
-      </c>
+      <c r="I240" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="J240" s="109"/>
+      <c r="K240" s="110"/>
       <c r="L240" s="102" t="s">
         <v>492</v>
       </c>
@@ -12032,31 +12022,29 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="100" t="s">
-        <v>533</v>
-      </c>
-      <c r="B241" s="101" t="s">
-        <v>534</v>
-      </c>
-      <c r="C241" s="101" t="s">
-        <v>535</v>
-      </c>
-      <c r="D241" s="102">
-        <v>1</v>
-      </c>
-      <c r="E241" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="F241" s="100"/>
-      <c r="G241" s="102"/>
-      <c r="H241" s="100" t="s">
-        <v>63</v>
-      </c>
+      <c r="A241" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="B241" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="C241" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="D241" s="71">
+        <v>1</v>
+      </c>
+      <c r="E241" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F241" s="68"/>
+      <c r="G241" s="71"/>
+      <c r="H241" s="68"/>
       <c r="I241" s="112" t="s">
         <v>28</v>
       </c>
       <c r="J241" s="113"/>
-      <c r="K241" s="115" t="s">
+      <c r="K241" s="114" t="s">
         <v>28</v>
       </c>
       <c r="L241" s="102" t="s">
@@ -12075,13 +12063,13 @@
     </row>
     <row r="242" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="100" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B242" s="101" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C242" s="101" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D242" s="102">
         <v>1</v>
@@ -12117,13 +12105,13 @@
     </row>
     <row r="243" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="100" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B243" s="101" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C243" s="101" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D243" s="102">
         <v>1</v>
@@ -12159,13 +12147,13 @@
     </row>
     <row r="244" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="100" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B244" s="101" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C244" s="101" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D244" s="102">
         <v>1</v>
@@ -12201,13 +12189,13 @@
     </row>
     <row r="245" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="100" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B245" s="101" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C245" s="101" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D245" s="102">
         <v>1</v>
@@ -12243,13 +12231,13 @@
     </row>
     <row r="246" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="100" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B246" s="101" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C246" s="101" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D246" s="102">
         <v>1</v>
@@ -12285,13 +12273,13 @@
     </row>
     <row r="247" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="100" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B247" s="101" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C247" s="101" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D247" s="102">
         <v>1</v>
@@ -12327,13 +12315,13 @@
     </row>
     <row r="248" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="100" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B248" s="101" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C248" s="101" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D248" s="102">
         <v>1</v>
@@ -12369,13 +12357,13 @@
     </row>
     <row r="249" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="100" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B249" s="101" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C249" s="101" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D249" s="102">
         <v>1</v>
@@ -12410,86 +12398,92 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="59" t="s">
+      <c r="A250" s="100" t="s">
+        <v>557</v>
+      </c>
+      <c r="B250" s="101" t="s">
+        <v>558</v>
+      </c>
+      <c r="C250" s="101" t="s">
+        <v>559</v>
+      </c>
+      <c r="D250" s="102">
+        <v>1</v>
+      </c>
+      <c r="E250" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F250" s="100"/>
+      <c r="G250" s="102"/>
+      <c r="H250" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="I250" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J250" s="113"/>
+      <c r="K250" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="L250" s="102" t="s">
+        <v>492</v>
+      </c>
+      <c r="M250" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="N250" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="O250" s="102"/>
+      <c r="P250" s="102" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="59" t="s">
         <v>560</v>
       </c>
-      <c r="B250" s="95" t="s">
+      <c r="B251" s="95" t="s">
         <v>561</v>
       </c>
-      <c r="C250" s="98"/>
-      <c r="D250" s="99"/>
-      <c r="E250" s="65"/>
-      <c r="F250" s="65"/>
-      <c r="G250" s="99"/>
-      <c r="H250" s="65"/>
-      <c r="I250" s="64" t="s">
+      <c r="C251" s="98"/>
+      <c r="D251" s="99"/>
+      <c r="E251" s="65"/>
+      <c r="F251" s="65"/>
+      <c r="G251" s="99"/>
+      <c r="H251" s="65"/>
+      <c r="I251" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="J250" s="65"/>
-      <c r="K250" s="66"/>
-      <c r="L250" s="17"/>
-      <c r="M250" s="17"/>
-      <c r="N250" s="17"/>
-      <c r="O250" s="17"/>
-      <c r="P250" s="17"/>
-    </row>
-    <row r="251" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="75" t="s">
-        <v>475</v>
-      </c>
-      <c r="B251" s="76" t="s">
-        <v>521</v>
-      </c>
-      <c r="C251" s="76" t="s">
-        <v>521</v>
-      </c>
-      <c r="D251" s="78">
-        <v>1</v>
-      </c>
-      <c r="E251" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="F251" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G251" s="78"/>
-      <c r="H251" s="75"/>
-      <c r="I251" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J251" s="73"/>
-      <c r="K251" s="74"/>
-      <c r="L251" s="17" t="s">
-        <v>256</v>
-      </c>
+      <c r="J251" s="65"/>
+      <c r="K251" s="66"/>
+      <c r="L251" s="17"/>
       <c r="M251" s="17"/>
       <c r="N251" s="17"/>
       <c r="O251" s="17"/>
       <c r="P251" s="17"/>
     </row>
     <row r="252" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="97" t="s">
-        <v>562</v>
-      </c>
-      <c r="B252" s="77" t="s">
-        <v>563</v>
-      </c>
-      <c r="C252" s="77" t="s">
-        <v>564</v>
-      </c>
-      <c r="D252" s="17">
-        <v>1</v>
-      </c>
-      <c r="E252" s="97" t="s">
-        <v>487</v>
-      </c>
-      <c r="F252" s="97"/>
-      <c r="G252" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="H252" s="97" t="s">
-        <v>492</v>
-      </c>
+      <c r="A252" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="B252" s="76" t="s">
+        <v>521</v>
+      </c>
+      <c r="C252" s="76" t="s">
+        <v>521</v>
+      </c>
+      <c r="D252" s="78">
+        <v>1</v>
+      </c>
+      <c r="E252" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F252" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G252" s="78"/>
+      <c r="H252" s="75"/>
       <c r="I252" s="72" t="s">
         <v>28</v>
       </c>
@@ -12505,24 +12499,26 @@
     </row>
     <row r="253" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="97" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B253" s="77" t="s">
         <v>563</v>
       </c>
       <c r="C253" s="77" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D253" s="17">
         <v>1</v>
       </c>
       <c r="E253" s="97" t="s">
-        <v>61</v>
+        <v>487</v>
       </c>
       <c r="F253" s="97"/>
-      <c r="G253" s="17"/>
+      <c r="G253" s="17" t="s">
+        <v>565</v>
+      </c>
       <c r="H253" s="97" t="s">
-        <v>63</v>
+        <v>492</v>
       </c>
       <c r="I253" s="72" t="s">
         <v>28</v>
@@ -12539,13 +12535,13 @@
     </row>
     <row r="254" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="97" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B254" s="77" t="s">
         <v>563</v>
       </c>
       <c r="C254" s="77" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D254" s="17">
         <v>1</v>
@@ -12553,10 +12549,8 @@
       <c r="E254" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="F254" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="G254" s="57"/>
+      <c r="F254" s="97"/>
+      <c r="G254" s="17"/>
       <c r="H254" s="97" t="s">
         <v>63</v>
       </c>
@@ -12575,28 +12569,26 @@
     </row>
     <row r="255" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="97" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B255" s="77" t="s">
         <v>563</v>
       </c>
       <c r="C255" s="77" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D255" s="17">
         <v>1</v>
       </c>
       <c r="E255" s="97" t="s">
-        <v>573</v>
-      </c>
-      <c r="F255" s="97" t="s">
-        <v>574</v>
-      </c>
-      <c r="G255" s="17">
-        <v>10</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F255" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="G255" s="57"/>
       <c r="H255" s="97" t="s">
-        <v>575</v>
+        <v>63</v>
       </c>
       <c r="I255" s="72" t="s">
         <v>28</v>
@@ -12613,24 +12605,28 @@
     </row>
     <row r="256" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="97" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B256" s="77" t="s">
         <v>563</v>
       </c>
       <c r="C256" s="77" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D256" s="17">
         <v>1</v>
       </c>
       <c r="E256" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="F256" s="97"/>
-      <c r="G256" s="17"/>
+        <v>573</v>
+      </c>
+      <c r="F256" s="97" t="s">
+        <v>574</v>
+      </c>
+      <c r="G256" s="17">
+        <v>10</v>
+      </c>
       <c r="H256" s="97" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I256" s="72" t="s">
         <v>28</v>
@@ -12647,28 +12643,24 @@
     </row>
     <row r="257" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="97" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B257" s="77" t="s">
         <v>563</v>
       </c>
       <c r="C257" s="77" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D257" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E257" s="97" t="s">
-        <v>487</v>
-      </c>
-      <c r="F257" s="97" t="s">
-        <v>581</v>
-      </c>
-      <c r="G257" s="17">
-        <v>100</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F257" s="97"/>
+      <c r="G257" s="17"/>
       <c r="H257" s="97" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I257" s="72" t="s">
         <v>28</v>
@@ -12685,28 +12677,28 @@
     </row>
     <row r="258" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="97" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B258" s="77" t="s">
         <v>563</v>
       </c>
       <c r="C258" s="77" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D258" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E258" s="97" t="s">
         <v>487</v>
       </c>
       <c r="F258" s="97" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G258" s="17">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H258" s="97" t="s">
-        <v>57</v>
+        <v>582</v>
       </c>
       <c r="I258" s="72" t="s">
         <v>28</v>
@@ -12723,26 +12715,28 @@
     </row>
     <row r="259" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="97" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B259" s="77" t="s">
         <v>563</v>
       </c>
       <c r="C259" s="77" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D259" s="17">
         <v>1</v>
       </c>
       <c r="E259" s="97" t="s">
-        <v>61</v>
+        <v>487</v>
       </c>
       <c r="F259" s="97" t="s">
-        <v>588</v>
-      </c>
-      <c r="G259" s="17"/>
+        <v>585</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1000</v>
+      </c>
       <c r="H259" s="97" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I259" s="72" t="s">
         <v>28</v>
@@ -12759,13 +12753,13 @@
     </row>
     <row r="260" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="97" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B260" s="77" t="s">
         <v>563</v>
       </c>
       <c r="C260" s="77" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D260" s="17">
         <v>1</v>
@@ -12774,13 +12768,11 @@
         <v>61</v>
       </c>
       <c r="F260" s="97" t="s">
-        <v>591</v>
-      </c>
-      <c r="G260" s="17">
-        <v>10</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="G260" s="17"/>
       <c r="H260" s="97" t="s">
-        <v>592</v>
+        <v>63</v>
       </c>
       <c r="I260" s="72" t="s">
         <v>28</v>
@@ -12797,7 +12789,7 @@
     </row>
     <row r="261" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="97" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B261" s="77" t="s">
         <v>563</v>
@@ -12835,7 +12827,7 @@
     </row>
     <row r="262" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="97" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B262" s="77" t="s">
         <v>563</v>
@@ -12870,6 +12862,44 @@
       <c r="N262" s="17"/>
       <c r="O262" s="17"/>
       <c r="P262" s="17"/>
+    </row>
+    <row r="263" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="97" t="s">
+        <v>594</v>
+      </c>
+      <c r="B263" s="77" t="s">
+        <v>563</v>
+      </c>
+      <c r="C263" s="77" t="s">
+        <v>590</v>
+      </c>
+      <c r="D263" s="17">
+        <v>1</v>
+      </c>
+      <c r="E263" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="F263" s="97" t="s">
+        <v>591</v>
+      </c>
+      <c r="G263" s="17">
+        <v>10</v>
+      </c>
+      <c r="H263" s="97" t="s">
+        <v>592</v>
+      </c>
+      <c r="I263" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J263" s="73"/>
+      <c r="K263" s="74"/>
+      <c r="L263" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="M263" s="17"/>
+      <c r="N263" s="17"/>
+      <c r="O263" s="17"/>
+      <c r="P263" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
